--- a/STZ.xlsx
+++ b/STZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D38E1C-0C85-4D7B-9120-474E731C568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9B490C-9BA6-4783-9709-CB256AFDB321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="1215" windowWidth="20970" windowHeight="14865" activeTab="1" xr2:uid="{3E65A911-C47E-4C1B-8C65-2C5108F0BD86}"/>
+    <workbookView xWindow="4785" yWindow="810" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{3E65A911-C47E-4C1B-8C65-2C5108F0BD86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,8 +157,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -197,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -205,6 +206,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,7 +649,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,7 +684,7 @@
       </c>
       <c r="D4" s="2">
         <f>D3*D2</f>
-        <v>33429.5</v>
+        <v>34694.399999999994</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,7 +716,7 @@
       </c>
       <c r="D7" s="2">
         <f>D4+D6-D5</f>
-        <v>45762.5</v>
+        <v>47027.399999999994</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +732,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4:V4"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,44 +894,44 @@
         <v>9962</v>
       </c>
       <c r="M4" s="4">
-        <f>L4*1.05</f>
-        <v>10460.1</v>
+        <f t="shared" ref="M4:V4" si="3">L4*1.03</f>
+        <v>10260.86</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:V4" si="3">M4*1.05</f>
-        <v>10983.105000000001</v>
+        <f t="shared" si="3"/>
+        <v>10568.685800000001</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="3"/>
-        <v>11532.260250000001</v>
+        <v>10885.746374000002</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="3"/>
-        <v>12108.873262500001</v>
+        <v>11212.318765220003</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="3"/>
-        <v>12714.316925625002</v>
+        <v>11548.688328176604</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" ref="R4:V4" si="4">Q4*1.03</f>
-        <v>13095.746433393753</v>
+        <f t="shared" si="3"/>
+        <v>11895.148978021902</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="4"/>
-        <v>13488.618826395566</v>
+        <f t="shared" si="3"/>
+        <v>12252.003447362558</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" si="4"/>
-        <v>13893.277391187434</v>
+        <f t="shared" si="3"/>
+        <v>12619.563550783436</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="4"/>
-        <v>14310.075712923057</v>
+        <f t="shared" si="3"/>
+        <v>12998.15045730694</v>
       </c>
       <c r="V4" s="4">
-        <f t="shared" si="4"/>
-        <v>14739.37798431075</v>
+        <f t="shared" si="3"/>
+        <v>13388.094971026148</v>
       </c>
     </row>
     <row r="5" spans="1:117" x14ac:dyDescent="0.25">
@@ -947,43 +949,43 @@
       </c>
       <c r="M5" s="2">
         <f>M4*(1-M21)</f>
-        <v>5125.4490000000005</v>
+        <v>4925.2128000000002</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" ref="N5:Q5" si="5">N4*(1-N21)</f>
-        <v>5381.7214500000009</v>
+        <f t="shared" ref="N5:Q5" si="4">N4*(1-N21)</f>
+        <v>5072.9691840000005</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="5"/>
-        <v>5650.8075225000002</v>
+        <f t="shared" si="4"/>
+        <v>5225.1582595200007</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="5"/>
-        <v>5933.3478986250002</v>
+        <f t="shared" si="4"/>
+        <v>5381.9130073056012</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="5"/>
-        <v>6230.015293556251</v>
+        <f t="shared" si="4"/>
+        <v>5543.3703975247699</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" ref="R5" si="6">R4*(1-R21)</f>
-        <v>6416.9157523629392</v>
+        <f t="shared" ref="R5" si="5">R4*(1-R21)</f>
+        <v>5709.6715094505125</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" ref="S5" si="7">S4*(1-S21)</f>
-        <v>6609.4232249338274</v>
+        <f t="shared" ref="S5" si="6">S4*(1-S21)</f>
+        <v>5880.9616547340274</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" ref="T5" si="8">T4*(1-T21)</f>
-        <v>6807.7059216818425</v>
+        <f t="shared" ref="T5" si="7">T4*(1-T21)</f>
+        <v>6057.3905043760487</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" ref="U5" si="9">U4*(1-U21)</f>
-        <v>7011.9370993322982</v>
+        <f t="shared" ref="U5" si="8">U4*(1-U21)</f>
+        <v>6239.1122195073312</v>
       </c>
       <c r="V5" s="2">
-        <f t="shared" ref="V5" si="10">V4*(1-V21)</f>
-        <v>7222.2952123122668</v>
+        <f t="shared" ref="V5" si="9">V4*(1-V21)</f>
+        <v>6426.2855860925511</v>
       </c>
     </row>
     <row r="6" spans="1:117" x14ac:dyDescent="0.25">
@@ -995,80 +997,80 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:H6" si="11">C4-C5</f>
+        <f t="shared" ref="C6:H6" si="10">C4-C5</f>
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6" si="12">I4-I5</f>
+        <f t="shared" ref="I6" si="11">I4-I5</f>
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J6" si="13">J4-J5</f>
+        <f t="shared" ref="J6" si="12">J4-J5</f>
         <v>4708</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6" si="14">K4-K5</f>
+        <f t="shared" ref="K6" si="13">K4-K5</f>
         <v>4770</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" ref="L6" si="15">L4-L5</f>
+        <f t="shared" ref="L6" si="14">L4-L5</f>
         <v>5018</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" ref="M6" si="16">M4-M5</f>
-        <v>5334.6509999999998</v>
+        <f t="shared" ref="M6" si="15">M4-M5</f>
+        <v>5335.6472000000003</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" ref="N6" si="17">N4-N5</f>
-        <v>5601.3835500000005</v>
+        <f t="shared" ref="N6" si="16">N4-N5</f>
+        <v>5495.7166160000006</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" ref="O6" si="18">O4-O5</f>
-        <v>5881.4527275000009</v>
+        <f t="shared" ref="O6" si="17">O4-O5</f>
+        <v>5660.5881144800014</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" ref="P6" si="19">P4-P5</f>
-        <v>6175.5253638750009</v>
+        <f t="shared" ref="P6" si="18">P4-P5</f>
+        <v>5830.4057579144019</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" ref="Q6" si="20">Q4-Q5</f>
-        <v>6484.3016320687511</v>
+        <f t="shared" ref="Q6" si="19">Q4-Q5</f>
+        <v>6005.3179306518341</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" ref="R6" si="21">R4-R5</f>
-        <v>6678.830681030814</v>
+        <f t="shared" ref="R6" si="20">R4-R5</f>
+        <v>6185.4774685713892</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" ref="S6" si="22">S4-S5</f>
-        <v>6879.195601461739</v>
+        <f t="shared" ref="S6" si="21">S4-S5</f>
+        <v>6371.0417926285309</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" ref="T6" si="23">T4-T5</f>
-        <v>7085.5714695055913</v>
+        <f t="shared" ref="T6" si="22">T4-T5</f>
+        <v>6562.1730464073871</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" ref="U6" si="24">U4-U5</f>
-        <v>7298.1386135907587</v>
+        <f t="shared" ref="U6" si="23">U4-U5</f>
+        <v>6759.0382377996084</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" ref="V6" si="25">V4-V5</f>
-        <v>7517.0827719984827</v>
+        <f t="shared" ref="V6" si="24">V4-V5</f>
+        <v>6961.8093849335974</v>
       </c>
     </row>
     <row r="7" spans="1:117" x14ac:dyDescent="0.25">
@@ -1086,43 +1088,43 @@
       </c>
       <c r="M7" s="2">
         <f>L7*(1+M17)</f>
-        <v>1939.3500000000001</v>
+        <v>1902.41</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" ref="N7:Q7" si="26">M7*(1+N17)</f>
-        <v>2036.3175000000003</v>
+        <f t="shared" ref="N7:Q7" si="25">M7*(1+N17)</f>
+        <v>1959.4823000000001</v>
       </c>
       <c r="O7" s="2">
+        <f t="shared" si="25"/>
+        <v>2018.2667690000001</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="25"/>
+        <v>2078.8147720700003</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="25"/>
+        <v>2141.1792152321004</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7:V7" si="26">Q7*(1+R17)</f>
+        <v>2205.4145916890634</v>
+      </c>
+      <c r="S7" s="2">
         <f t="shared" si="26"/>
-        <v>2138.1333750000003</v>
-      </c>
-      <c r="P7" s="2">
+        <v>2271.5770294397353</v>
+      </c>
+      <c r="T7" s="2">
         <f t="shared" si="26"/>
-        <v>2245.0400437500007</v>
-      </c>
-      <c r="Q7" s="2">
+        <v>2339.7243403229272</v>
+      </c>
+      <c r="U7" s="2">
         <f t="shared" si="26"/>
-        <v>2357.2920459375009</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" ref="R7:V7" si="27">Q7*(1+R17)</f>
-        <v>2428.0108073156262</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="27"/>
-        <v>2500.8511315350952</v>
-      </c>
-      <c r="T7" s="2">
-        <f t="shared" si="27"/>
-        <v>2575.8766654811479</v>
-      </c>
-      <c r="U7" s="2">
-        <f t="shared" si="27"/>
-        <v>2653.1529654455826</v>
+        <v>2409.9160705326153</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="27"/>
-        <v>2732.7475544089502</v>
+        <f t="shared" si="26"/>
+        <v>2482.213552648594</v>
       </c>
     </row>
     <row r="8" spans="1:117" x14ac:dyDescent="0.25">
@@ -1134,80 +1136,80 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:H8" si="28">C6-C7</f>
+        <f t="shared" ref="C8:H8" si="27">C6-C7</f>
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" ref="I8" si="29">I6-I7</f>
+        <f t="shared" ref="I8" si="28">I6-I7</f>
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8" si="30">J6-J7</f>
+        <f t="shared" ref="J8" si="29">J6-J7</f>
         <v>2999</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" ref="K8" si="31">K6-K7</f>
+        <f t="shared" ref="K8" si="30">K6-K7</f>
         <v>2844</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" ref="L8" si="32">L6-L7</f>
+        <f t="shared" ref="L8" si="31">L6-L7</f>
         <v>3171</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" ref="M8" si="33">M6-M7</f>
-        <v>3395.3009999999995</v>
+        <f t="shared" ref="M8" si="32">M6-M7</f>
+        <v>3433.2372000000005</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" ref="N8" si="34">N6-N7</f>
-        <v>3565.0660500000004</v>
+        <f t="shared" ref="N8" si="33">N6-N7</f>
+        <v>3536.2343160000005</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" ref="O8" si="35">O6-O7</f>
-        <v>3743.3193525000006</v>
+        <f t="shared" ref="O8" si="34">O6-O7</f>
+        <v>3642.3213454800016</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" ref="P8" si="36">P6-P7</f>
-        <v>3930.4853201250003</v>
+        <f t="shared" ref="P8" si="35">P6-P7</f>
+        <v>3751.5909858444015</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" ref="Q8" si="37">Q6-Q7</f>
-        <v>4127.0095861312502</v>
+        <f t="shared" ref="Q8" si="36">Q6-Q7</f>
+        <v>3864.1387154197337</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" ref="R8" si="38">R6-R7</f>
-        <v>4250.8198737151879</v>
+        <f t="shared" ref="R8" si="37">R6-R7</f>
+        <v>3980.0628768823258</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" ref="S8" si="39">S6-S7</f>
-        <v>4378.3444699266438</v>
+        <f t="shared" ref="S8" si="38">S6-S7</f>
+        <v>4099.4647631887956</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" ref="T8" si="40">T6-T7</f>
-        <v>4509.6948040244433</v>
+        <f t="shared" ref="T8" si="39">T6-T7</f>
+        <v>4222.4487060844604</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" ref="U8" si="41">U6-U7</f>
-        <v>4644.9856481451761</v>
+        <f t="shared" ref="U8" si="40">U6-U7</f>
+        <v>4349.1221672669926</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" ref="V8" si="42">V6-V7</f>
-        <v>4784.3352175895325</v>
+        <f t="shared" ref="V8" si="41">V6-V7</f>
+        <v>4479.5958322850038</v>
       </c>
     </row>
     <row r="9" spans="1:117" x14ac:dyDescent="0.25">
@@ -1269,43 +1271,43 @@
       </c>
       <c r="M10" s="2">
         <f>L27*$Y$18</f>
-        <v>-493.32</v>
+        <v>-739.98</v>
       </c>
       <c r="N10" s="2">
         <f>M27*$Y$18</f>
-        <v>-401.61740040000007</v>
+        <v>-612.31960871999991</v>
       </c>
       <c r="O10" s="2">
         <f>N27*$Y$18</f>
-        <v>-301.65242307264003</v>
+        <v>-473.72605159492792</v>
       </c>
       <c r="P10" s="2">
         <f>O27*$Y$18</f>
-        <v>-192.89574810273541</v>
+        <v>-323.53463466477541</v>
       </c>
       <c r="Q10" s="2">
         <f>P27*$Y$18</f>
-        <v>-74.787917626831842</v>
+        <v>-161.04476361886114</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" ref="R10:V10" si="43">Q27*$Y$18</f>
-        <v>53.262287097907773</v>
+        <f t="shared" ref="R10:V10" si="42">Q27*$Y$18</f>
+        <v>14.48188969650022</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="43"/>
-        <v>189.27128337960158</v>
+        <f t="shared" si="42"/>
+        <v>203.82331163233658</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="43"/>
-        <v>333.60794118407898</v>
+        <f t="shared" si="42"/>
+        <v>407.79916637885827</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="43"/>
-        <v>486.65630793266831</v>
+        <f t="shared" si="42"/>
+        <v>627.27291553361954</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="43"/>
-        <v>648.81619374472814</v>
+        <f t="shared" si="42"/>
+        <v>863.15404245836851</v>
       </c>
     </row>
     <row r="11" spans="1:117" x14ac:dyDescent="0.25">
@@ -1317,80 +1319,80 @@
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:H11" si="44">C8+SUM(C9:C10)</f>
+        <f t="shared" ref="C11:H11" si="43">C8+SUM(C9:C10)</f>
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11" si="45">I8+SUM(I9:I10)</f>
+        <f t="shared" ref="I11" si="44">I8+SUM(I9:I10)</f>
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ref="J11" si="46">J8+SUM(J9:J10)</f>
+        <f t="shared" ref="J11" si="45">J8+SUM(J9:J10)</f>
         <v>1008</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11" si="47">K8+SUM(K9:K10)</f>
+        <f t="shared" ref="K11" si="46">K8+SUM(K9:K10)</f>
         <v>410</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11" si="48">L8+SUM(L9:L10)</f>
+        <f t="shared" ref="L11" si="47">L8+SUM(L9:L10)</f>
         <v>2225</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ref="M11" si="49">M8+SUM(M9:M10)</f>
-        <v>2901.9809999999993</v>
+        <f t="shared" ref="M11" si="48">M8+SUM(M9:M10)</f>
+        <v>2693.2572000000005</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11" si="50">N8+SUM(N9:N10)</f>
-        <v>3163.4486496000004</v>
+        <f t="shared" ref="N11" si="49">N8+SUM(N9:N10)</f>
+        <v>2923.9147072800006</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ref="O11" si="51">O8+SUM(O9:O10)</f>
-        <v>3441.6669294273606</v>
+        <f t="shared" ref="O11" si="50">O8+SUM(O9:O10)</f>
+        <v>3168.5952938850737</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" ref="P11" si="52">P8+SUM(P9:P10)</f>
-        <v>3737.5895720222647</v>
+        <f t="shared" ref="P11" si="51">P8+SUM(P9:P10)</f>
+        <v>3428.0563511796263</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" ref="Q11" si="53">Q8+SUM(Q9:Q10)</f>
-        <v>4052.2216685044182</v>
+        <f t="shared" ref="Q11" si="52">Q8+SUM(Q9:Q10)</f>
+        <v>3703.0939518008727</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" ref="R11" si="54">R8+SUM(R9:R10)</f>
-        <v>4304.0821608130955</v>
+        <f t="shared" ref="R11" si="53">R8+SUM(R9:R10)</f>
+        <v>3994.5447665788261</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" ref="S11" si="55">S8+SUM(S9:S10)</f>
-        <v>4567.6157533062451</v>
+        <f t="shared" ref="S11" si="54">S8+SUM(S9:S10)</f>
+        <v>4303.2880748211319</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" ref="T11" si="56">T8+SUM(T9:T10)</f>
-        <v>4843.3027452085225</v>
+        <f t="shared" ref="T11" si="55">T8+SUM(T9:T10)</f>
+        <v>4630.2478724633183</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" ref="U11" si="57">U8+SUM(U9:U10)</f>
-        <v>5131.641956077844</v>
+        <f t="shared" ref="U11" si="56">U8+SUM(U9:U10)</f>
+        <v>4976.3950828006118</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" ref="V11" si="58">V8+SUM(V9:V10)</f>
-        <v>5433.151411334261</v>
+        <f t="shared" ref="V11" si="57">V8+SUM(V9:V10)</f>
+        <v>5342.7498747433719</v>
       </c>
     </row>
     <row r="12" spans="1:117" x14ac:dyDescent="0.25">
@@ -1408,43 +1410,43 @@
       </c>
       <c r="M12" s="2">
         <f>M18*M11</f>
-        <v>609.4160099999998</v>
+        <v>565.58401200000003</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" ref="N12:Q12" si="59">N18*N11</f>
-        <v>664.32421641600001</v>
+        <f t="shared" ref="N12:Q12" si="58">N18*N11</f>
+        <v>614.02208852880005</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="59"/>
-        <v>722.75005517974569</v>
+        <f t="shared" si="58"/>
+        <v>665.4050117158655</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="59"/>
-        <v>784.89381012467561</v>
+        <f t="shared" si="58"/>
+        <v>719.89183374772153</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="59"/>
-        <v>850.9665503859278</v>
+        <f t="shared" si="58"/>
+        <v>777.64972987818328</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" ref="R12" si="60">R18*R11</f>
-        <v>903.85725377075005</v>
+        <f t="shared" ref="R12" si="59">R18*R11</f>
+        <v>838.85440098155345</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" ref="S12" si="61">S18*S11</f>
-        <v>959.19930819431147</v>
+        <f t="shared" ref="S12" si="60">S18*S11</f>
+        <v>903.69049571243761</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" ref="T12" si="62">T18*T11</f>
-        <v>1017.0935764937897</v>
+        <f t="shared" ref="T12" si="61">T18*T11</f>
+        <v>972.35205321729677</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" ref="U12" si="63">U18*U11</f>
-        <v>1077.6448107763472</v>
+        <f t="shared" ref="U12" si="62">U18*U11</f>
+        <v>1045.0429673881285</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" ref="V12" si="64">V18*V11</f>
-        <v>1140.9617963801948</v>
+        <f t="shared" ref="V12" si="63">V18*V11</f>
+        <v>1121.9774736961081</v>
       </c>
     </row>
     <row r="13" spans="1:117" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1456,460 +1458,460 @@
         <v>0</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:H13" si="65">C11-C12</f>
+        <f t="shared" ref="C13:H13" si="64">C11-C12</f>
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" ref="I13" si="66">I11-I12</f>
+        <f t="shared" ref="I13" si="65">I11-I12</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" ref="J13" si="67">J11-J12</f>
+        <f t="shared" ref="J13" si="66">J11-J12</f>
         <v>699</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" ref="K13" si="68">K11-K12</f>
+        <f t="shared" ref="K13" si="67">K11-K12</f>
         <v>-12</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" ref="L13" si="69">L11-L12</f>
+        <f t="shared" ref="L13" si="68">L11-L12</f>
         <v>1769</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" ref="M13" si="70">M11-M12</f>
-        <v>2292.5649899999994</v>
+        <f t="shared" ref="M13" si="69">M11-M12</f>
+        <v>2127.6731880000007</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" ref="N13" si="71">N11-N12</f>
-        <v>2499.1244331840003</v>
+        <f t="shared" ref="N13" si="70">N11-N12</f>
+        <v>2309.8926187512006</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" ref="O13" si="72">O11-O12</f>
-        <v>2718.9168742476149</v>
+        <f t="shared" ref="O13" si="71">O11-O12</f>
+        <v>2503.1902821692083</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" ref="P13" si="73">P11-P12</f>
-        <v>2952.6957618975894</v>
+        <f t="shared" ref="P13" si="72">P11-P12</f>
+        <v>2708.1645174319046</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" ref="Q13" si="74">Q11-Q12</f>
-        <v>3201.2551181184904</v>
+        <f t="shared" ref="Q13" si="73">Q11-Q12</f>
+        <v>2925.4442219226894</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" ref="R13" si="75">R11-R12</f>
-        <v>3400.2249070423454</v>
+        <f t="shared" ref="R13" si="74">R11-R12</f>
+        <v>3155.6903655972728</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" ref="S13" si="76">S11-S12</f>
-        <v>3608.4164451119336</v>
+        <f t="shared" ref="S13" si="75">S11-S12</f>
+        <v>3399.5975791086944</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" ref="T13" si="77">T11-T12</f>
-        <v>3826.2091687147331</v>
+        <f t="shared" ref="T13" si="76">T11-T12</f>
+        <v>3657.8958192460213</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" ref="U13" si="78">U11-U12</f>
-        <v>4053.9971453014969</v>
+        <f t="shared" ref="U13" si="77">U11-U12</f>
+        <v>3931.3521154124833</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" ref="V13" si="79">V11-V12</f>
-        <v>4292.1896149540662</v>
+        <f t="shared" ref="V13" si="78">V11-V12</f>
+        <v>4220.7724010472639</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" ref="W13:BB13" si="80">V13*(1+$Y$19)</f>
-        <v>4335.111511103607</v>
+        <f t="shared" ref="W13:BB13" si="79">V13*(1+$Y$19)</f>
+        <v>4262.9801250577366</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="80"/>
-        <v>4378.462626214643</v>
+        <f t="shared" si="79"/>
+        <v>4305.6099263083142</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="80"/>
-        <v>4422.2472524767891</v>
+        <f t="shared" si="79"/>
+        <v>4348.6660255713978</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="80"/>
-        <v>4466.469725001557</v>
+        <f t="shared" si="79"/>
+        <v>4392.1526858271118</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="80"/>
-        <v>4511.1344222515727</v>
+        <f t="shared" si="79"/>
+        <v>4436.0742126853829</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="80"/>
-        <v>4556.2457664740887</v>
+        <f t="shared" si="79"/>
+        <v>4480.4349548122364</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="80"/>
-        <v>4601.8082241388292</v>
+        <f t="shared" si="79"/>
+        <v>4525.2393043603588</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="80"/>
-        <v>4647.8263063802178</v>
+        <f t="shared" si="79"/>
+        <v>4570.4916974039625</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="80"/>
-        <v>4694.3045694440198</v>
+        <f t="shared" si="79"/>
+        <v>4616.1966143780019</v>
       </c>
       <c r="AF13" s="4">
-        <f t="shared" si="80"/>
-        <v>4741.2476151384599</v>
+        <f t="shared" si="79"/>
+        <v>4662.3585805217817</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="80"/>
-        <v>4788.6600912898448</v>
+        <f t="shared" si="79"/>
+        <v>4708.9821663269995</v>
       </c>
       <c r="AH13" s="4">
-        <f t="shared" si="80"/>
-        <v>4836.5466922027435</v>
+        <f t="shared" si="79"/>
+        <v>4756.0719879902699</v>
       </c>
       <c r="AI13" s="4">
-        <f t="shared" si="80"/>
-        <v>4884.9121591247713</v>
+        <f t="shared" si="79"/>
+        <v>4803.6327078701725</v>
       </c>
       <c r="AJ13" s="4">
-        <f t="shared" si="80"/>
-        <v>4933.7612807160194</v>
+        <f t="shared" si="79"/>
+        <v>4851.6690349488745</v>
       </c>
       <c r="AK13" s="4">
-        <f t="shared" si="80"/>
-        <v>4983.0988935231799</v>
+        <f t="shared" si="79"/>
+        <v>4900.1857252983636</v>
       </c>
       <c r="AL13" s="4">
-        <f t="shared" si="80"/>
-        <v>5032.9298824584121</v>
+        <f t="shared" si="79"/>
+        <v>4949.1875825513471</v>
       </c>
       <c r="AM13" s="4">
-        <f t="shared" si="80"/>
-        <v>5083.259181282996</v>
+        <f t="shared" si="79"/>
+        <v>4998.6794583768606</v>
       </c>
       <c r="AN13" s="4">
-        <f t="shared" si="80"/>
-        <v>5134.0917730958263</v>
+        <f t="shared" si="79"/>
+        <v>5048.6662529606292</v>
       </c>
       <c r="AO13" s="4">
-        <f t="shared" si="80"/>
-        <v>5185.4326908267849</v>
+        <f t="shared" si="79"/>
+        <v>5099.1529154902355</v>
       </c>
       <c r="AP13" s="4">
-        <f t="shared" si="80"/>
-        <v>5237.2870177350524</v>
+        <f t="shared" si="79"/>
+        <v>5150.1444446451378</v>
       </c>
       <c r="AQ13" s="4">
-        <f t="shared" si="80"/>
-        <v>5289.6598879124031</v>
+        <f t="shared" si="79"/>
+        <v>5201.6458890915892</v>
       </c>
       <c r="AR13" s="4">
-        <f t="shared" si="80"/>
-        <v>5342.5564867915273</v>
+        <f t="shared" si="79"/>
+        <v>5253.6623479825048</v>
       </c>
       <c r="AS13" s="4">
-        <f t="shared" si="80"/>
-        <v>5395.9820516594427</v>
+        <f t="shared" si="79"/>
+        <v>5306.1989714623296</v>
       </c>
       <c r="AT13" s="4">
-        <f t="shared" si="80"/>
-        <v>5449.9418721760376</v>
+        <f t="shared" si="79"/>
+        <v>5359.2609611769531</v>
       </c>
       <c r="AU13" s="4">
-        <f t="shared" si="80"/>
-        <v>5504.4412908977984</v>
+        <f t="shared" si="79"/>
+        <v>5412.8535707887222</v>
       </c>
       <c r="AV13" s="4">
-        <f t="shared" si="80"/>
-        <v>5559.4857038067767</v>
+        <f t="shared" si="79"/>
+        <v>5466.982106496609</v>
       </c>
       <c r="AW13" s="4">
-        <f t="shared" si="80"/>
-        <v>5615.0805608448445</v>
+        <f t="shared" si="79"/>
+        <v>5521.6519275615756</v>
       </c>
       <c r="AX13" s="4">
-        <f t="shared" si="80"/>
-        <v>5671.231366453293</v>
+        <f t="shared" si="79"/>
+        <v>5576.8684468371912</v>
       </c>
       <c r="AY13" s="4">
-        <f t="shared" si="80"/>
-        <v>5727.9436801178263</v>
+        <f t="shared" si="79"/>
+        <v>5632.6371313055633</v>
       </c>
       <c r="AZ13" s="4">
-        <f t="shared" si="80"/>
-        <v>5785.2231169190045</v>
+        <f t="shared" si="79"/>
+        <v>5688.9635026186188</v>
       </c>
       <c r="BA13" s="4">
-        <f t="shared" si="80"/>
-        <v>5843.0753480881949</v>
+        <f t="shared" si="79"/>
+        <v>5745.8531376448054</v>
       </c>
       <c r="BB13" s="4">
-        <f t="shared" si="80"/>
-        <v>5901.5061015690771</v>
+        <f t="shared" si="79"/>
+        <v>5803.3116690212537</v>
       </c>
       <c r="BC13" s="4">
-        <f t="shared" ref="BC13:CH13" si="81">BB13*(1+$Y$19)</f>
-        <v>5960.5211625847678</v>
+        <f t="shared" ref="BC13:CH13" si="80">BB13*(1+$Y$19)</f>
+        <v>5861.3447857114661</v>
       </c>
       <c r="BD13" s="4">
-        <f t="shared" si="81"/>
-        <v>6020.1263742106157</v>
+        <f t="shared" si="80"/>
+        <v>5919.9582335685809</v>
       </c>
       <c r="BE13" s="4">
-        <f t="shared" si="81"/>
-        <v>6080.3276379527215</v>
+        <f t="shared" si="80"/>
+        <v>5979.1578159042665</v>
       </c>
       <c r="BF13" s="4">
-        <f t="shared" si="81"/>
-        <v>6141.1309143322487</v>
+        <f t="shared" si="80"/>
+        <v>6038.9493940633092</v>
       </c>
       <c r="BG13" s="4">
-        <f t="shared" si="81"/>
-        <v>6202.5422234755715</v>
+        <f t="shared" si="80"/>
+        <v>6099.338888003942</v>
       </c>
       <c r="BH13" s="4">
-        <f t="shared" si="81"/>
-        <v>6264.5676457103273</v>
+        <f t="shared" si="80"/>
+        <v>6160.3322768839816</v>
       </c>
       <c r="BI13" s="4">
-        <f t="shared" si="81"/>
-        <v>6327.2133221674303</v>
+        <f t="shared" si="80"/>
+        <v>6221.9355996528211</v>
       </c>
       <c r="BJ13" s="4">
-        <f t="shared" si="81"/>
-        <v>6390.4854553891046</v>
+        <f t="shared" si="80"/>
+        <v>6284.1549556493492</v>
       </c>
       <c r="BK13" s="4">
-        <f t="shared" si="81"/>
-        <v>6454.3903099429954</v>
+        <f t="shared" si="80"/>
+        <v>6346.9965052058424</v>
       </c>
       <c r="BL13" s="4">
-        <f t="shared" si="81"/>
-        <v>6518.9342130424257</v>
+        <f t="shared" si="80"/>
+        <v>6410.4664702579012</v>
       </c>
       <c r="BM13" s="4">
-        <f t="shared" si="81"/>
-        <v>6584.1235551728496</v>
+        <f t="shared" si="80"/>
+        <v>6474.5711349604799</v>
       </c>
       <c r="BN13" s="4">
-        <f t="shared" si="81"/>
-        <v>6649.9647907245781</v>
+        <f t="shared" si="80"/>
+        <v>6539.3168463100847</v>
       </c>
       <c r="BO13" s="4">
-        <f t="shared" si="81"/>
-        <v>6716.4644386318241</v>
+        <f t="shared" si="80"/>
+        <v>6604.7100147731853</v>
       </c>
       <c r="BP13" s="4">
-        <f t="shared" si="81"/>
-        <v>6783.6290830181424</v>
+        <f t="shared" si="80"/>
+        <v>6670.757114920917</v>
       </c>
       <c r="BQ13" s="4">
-        <f t="shared" si="81"/>
-        <v>6851.4653738483239</v>
+        <f t="shared" si="80"/>
+        <v>6737.4646860701259</v>
       </c>
       <c r="BR13" s="4">
-        <f t="shared" si="81"/>
-        <v>6919.9800275868074</v>
+        <f t="shared" si="80"/>
+        <v>6804.8393329308274</v>
       </c>
       <c r="BS13" s="4">
-        <f t="shared" si="81"/>
-        <v>6989.1798278626757</v>
+        <f t="shared" si="80"/>
+        <v>6872.8877262601354</v>
       </c>
       <c r="BT13" s="4">
-        <f t="shared" si="81"/>
-        <v>7059.0716261413027</v>
+        <f t="shared" si="80"/>
+        <v>6941.616603522737</v>
       </c>
       <c r="BU13" s="4">
-        <f t="shared" si="81"/>
-        <v>7129.6623424027157</v>
+        <f t="shared" si="80"/>
+        <v>7011.0327695579645</v>
       </c>
       <c r="BV13" s="4">
-        <f t="shared" si="81"/>
-        <v>7200.9589658267432</v>
+        <f t="shared" si="80"/>
+        <v>7081.1430972535445</v>
       </c>
       <c r="BW13" s="4">
-        <f t="shared" si="81"/>
-        <v>7272.9685554850112</v>
+        <f t="shared" si="80"/>
+        <v>7151.9545282260797</v>
       </c>
       <c r="BX13" s="4">
-        <f t="shared" si="81"/>
-        <v>7345.6982410398614</v>
+        <f t="shared" si="80"/>
+        <v>7223.4740735083406</v>
       </c>
       <c r="BY13" s="4">
-        <f t="shared" si="81"/>
-        <v>7419.1552234502597</v>
+        <f t="shared" si="80"/>
+        <v>7295.7088142434241</v>
       </c>
       <c r="BZ13" s="4">
-        <f t="shared" si="81"/>
-        <v>7493.3467756847622</v>
+        <f t="shared" si="80"/>
+        <v>7368.6659023858583</v>
       </c>
       <c r="CA13" s="4">
-        <f t="shared" si="81"/>
-        <v>7568.2802434416099</v>
+        <f t="shared" si="80"/>
+        <v>7442.3525614097171</v>
       </c>
       <c r="CB13" s="4">
-        <f t="shared" si="81"/>
-        <v>7643.9630458760257</v>
+        <f t="shared" si="80"/>
+        <v>7516.7760870238144</v>
       </c>
       <c r="CC13" s="4">
-        <f t="shared" si="81"/>
-        <v>7720.4026763347856</v>
+        <f t="shared" si="80"/>
+        <v>7591.9438478940529</v>
       </c>
       <c r="CD13" s="4">
-        <f t="shared" si="81"/>
-        <v>7797.6067030981339</v>
+        <f t="shared" si="80"/>
+        <v>7667.8632863729936</v>
       </c>
       <c r="CE13" s="4">
-        <f t="shared" si="81"/>
-        <v>7875.5827701291155</v>
+        <f t="shared" si="80"/>
+        <v>7744.5419192367235</v>
       </c>
       <c r="CF13" s="4">
-        <f t="shared" si="81"/>
-        <v>7954.3385978304068</v>
+        <f t="shared" si="80"/>
+        <v>7821.9873384290904</v>
       </c>
       <c r="CG13" s="4">
-        <f t="shared" si="81"/>
-        <v>8033.8819838087111</v>
+        <f t="shared" si="80"/>
+        <v>7900.207211813381</v>
       </c>
       <c r="CH13" s="4">
-        <f t="shared" si="81"/>
-        <v>8114.2208036467982</v>
+        <f t="shared" si="80"/>
+        <v>7979.2092839315146</v>
       </c>
       <c r="CI13" s="4">
-        <f t="shared" ref="CI13:DM13" si="82">CH13*(1+$Y$19)</f>
-        <v>8195.3630116832664</v>
+        <f t="shared" ref="CI13:DM13" si="81">CH13*(1+$Y$19)</f>
+        <v>8059.0013767708297</v>
       </c>
       <c r="CJ13" s="4">
-        <f t="shared" si="82"/>
-        <v>8277.3166418000983</v>
+        <f t="shared" si="81"/>
+        <v>8139.5913905385378</v>
       </c>
       <c r="CK13" s="4">
-        <f t="shared" si="82"/>
-        <v>8360.0898082180993</v>
+        <f t="shared" si="81"/>
+        <v>8220.9873044439228</v>
       </c>
       <c r="CL13" s="4">
-        <f t="shared" si="82"/>
-        <v>8443.69070630028</v>
+        <f t="shared" si="81"/>
+        <v>8303.1971774883623</v>
       </c>
       <c r="CM13" s="4">
-        <f t="shared" si="82"/>
-        <v>8528.1276133632837</v>
+        <f t="shared" si="81"/>
+        <v>8386.2291492632467</v>
       </c>
       <c r="CN13" s="4">
-        <f t="shared" si="82"/>
-        <v>8613.4088894969173</v>
+        <f t="shared" si="81"/>
+        <v>8470.0914407558794</v>
       </c>
       <c r="CO13" s="4">
-        <f t="shared" si="82"/>
-        <v>8699.5429783918862</v>
+        <f t="shared" si="81"/>
+        <v>8554.7923551634376</v>
       </c>
       <c r="CP13" s="4">
-        <f t="shared" si="82"/>
-        <v>8786.5384081758057</v>
+        <f t="shared" si="81"/>
+        <v>8640.3402787150717</v>
       </c>
       <c r="CQ13" s="4">
-        <f t="shared" si="82"/>
-        <v>8874.4037922575644</v>
+        <f t="shared" si="81"/>
+        <v>8726.7436815022229</v>
       </c>
       <c r="CR13" s="4">
-        <f t="shared" si="82"/>
-        <v>8963.1478301801399</v>
+        <f t="shared" si="81"/>
+        <v>8814.0111183172448</v>
       </c>
       <c r="CS13" s="4">
-        <f t="shared" si="82"/>
-        <v>9052.7793084819405</v>
+        <f t="shared" si="81"/>
+        <v>8902.1512295004177</v>
       </c>
       <c r="CT13" s="4">
-        <f t="shared" si="82"/>
-        <v>9143.3071015667592</v>
+        <f t="shared" si="81"/>
+        <v>8991.1727417954226</v>
       </c>
       <c r="CU13" s="4">
-        <f t="shared" si="82"/>
-        <v>9234.7401725824275</v>
+        <f t="shared" si="81"/>
+        <v>9081.084469213376</v>
       </c>
       <c r="CV13" s="4">
-        <f t="shared" si="82"/>
-        <v>9327.0875743082524</v>
+        <f t="shared" si="81"/>
+        <v>9171.8953139055102</v>
       </c>
       <c r="CW13" s="4">
-        <f t="shared" si="82"/>
-        <v>9420.3584500513352</v>
+        <f t="shared" si="81"/>
+        <v>9263.6142670445661</v>
       </c>
       <c r="CX13" s="4">
-        <f t="shared" si="82"/>
-        <v>9514.5620345518491</v>
+        <f t="shared" si="81"/>
+        <v>9356.2504097150122</v>
       </c>
       <c r="CY13" s="4">
-        <f t="shared" si="82"/>
-        <v>9609.7076548973673</v>
+        <f t="shared" si="81"/>
+        <v>9449.8129138121622</v>
       </c>
       <c r="CZ13" s="4">
-        <f t="shared" si="82"/>
-        <v>9705.804731446342</v>
+        <f t="shared" si="81"/>
+        <v>9544.3110429502831</v>
       </c>
       <c r="DA13" s="4">
-        <f t="shared" si="82"/>
-        <v>9802.8627787608057</v>
+        <f t="shared" si="81"/>
+        <v>9639.7541533797867</v>
       </c>
       <c r="DB13" s="4">
-        <f t="shared" si="82"/>
-        <v>9900.8914065484132</v>
+        <f t="shared" si="81"/>
+        <v>9736.1516949135839</v>
       </c>
       <c r="DC13" s="4">
-        <f t="shared" si="82"/>
-        <v>9999.9003206138968</v>
+        <f t="shared" si="81"/>
+        <v>9833.5132118627207</v>
       </c>
       <c r="DD13" s="4">
-        <f t="shared" si="82"/>
-        <v>10099.899323820036</v>
+        <f t="shared" si="81"/>
+        <v>9931.8483439813481</v>
       </c>
       <c r="DE13" s="4">
-        <f t="shared" si="82"/>
-        <v>10200.898317058236</v>
+        <f t="shared" si="81"/>
+        <v>10031.166827421162</v>
       </c>
       <c r="DF13" s="4">
-        <f t="shared" si="82"/>
-        <v>10302.907300228819</v>
+        <f t="shared" si="81"/>
+        <v>10131.478495695374</v>
       </c>
       <c r="DG13" s="4">
-        <f t="shared" si="82"/>
-        <v>10405.936373231107</v>
+        <f t="shared" si="81"/>
+        <v>10232.793280652328</v>
       </c>
       <c r="DH13" s="4">
-        <f t="shared" si="82"/>
-        <v>10509.995736963418</v>
+        <f t="shared" si="81"/>
+        <v>10335.121213458851</v>
       </c>
       <c r="DI13" s="4">
-        <f t="shared" si="82"/>
-        <v>10615.095694333051</v>
+        <f t="shared" si="81"/>
+        <v>10438.47242559344</v>
       </c>
       <c r="DJ13" s="4">
-        <f t="shared" si="82"/>
-        <v>10721.246651276382</v>
+        <f t="shared" si="81"/>
+        <v>10542.857149849375</v>
       </c>
       <c r="DK13" s="4">
-        <f t="shared" si="82"/>
-        <v>10828.459117789145</v>
+        <f t="shared" si="81"/>
+        <v>10648.285721347869</v>
       </c>
       <c r="DL13" s="4">
-        <f t="shared" si="82"/>
-        <v>10936.743708967037</v>
+        <f t="shared" si="81"/>
+        <v>10754.768578561348</v>
       </c>
       <c r="DM13" s="4">
-        <f t="shared" si="82"/>
-        <v>11046.111146056706</v>
+        <f t="shared" si="81"/>
+        <v>10862.316264346962</v>
       </c>
     </row>
     <row r="14" spans="1:117" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1927,51 +1929,51 @@
         <v>24</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" ref="K17:P17" si="83">K4/J4-1</f>
+        <f t="shared" ref="K17:P17" si="82">K4/J4-1</f>
         <v>7.1647205532252567E-2</v>
       </c>
       <c r="L17" s="3">
+        <f t="shared" si="82"/>
+        <v>5.3845340103670702E-2</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="82"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="82"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="82"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="82"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" ref="Q17:V17" si="83">Q4/P4-1</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="R17" s="3">
         <f t="shared" si="83"/>
-        <v>5.3845340103670702E-2</v>
-      </c>
-      <c r="M17" s="3">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="S17" s="3">
         <f t="shared" si="83"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="N17" s="3">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="T17" s="3">
         <f t="shared" si="83"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="O17" s="3">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="U17" s="3">
         <f t="shared" si="83"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="P17" s="3">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="V17" s="3">
         <f t="shared" si="83"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" ref="Q17:V17" si="84">Q4/P4-1</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="84"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="S17" s="3">
-        <f t="shared" si="84"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="T17" s="3">
-        <f t="shared" si="84"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="U17" s="3">
-        <f t="shared" si="84"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" si="84"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -1984,11 +1986,11 @@
         <v>0.30654761904761907</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" ref="K18:L18" si="85">K12/K11</f>
+        <f t="shared" ref="K18:L18" si="84">K12/K11</f>
         <v>1.0292682926829269</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.2049438202247191</v>
       </c>
       <c r="M18" s="3">
@@ -2025,7 +2027,7 @@
         <v>30</v>
       </c>
       <c r="Y18" s="3">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="19" spans="1:119" x14ac:dyDescent="0.25">
@@ -2082,11 +2084,12 @@
       </c>
     </row>
     <row r="20" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
       <c r="X20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="3">
-        <v>7.1999999999999995E-2</v>
+      <c r="Y20" s="7">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:119" x14ac:dyDescent="0.25">
@@ -2106,41 +2109,41 @@
         <v>0.50371411363180085</v>
       </c>
       <c r="M21" s="3">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="N21" s="3">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="O21" s="3">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="P21" s="3">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="Q21" s="3">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="R21" s="3">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="S21" s="3">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="T21" s="3">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="U21" s="3">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="V21" s="3">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Y21" s="6">
-        <f>NPV(Y20,M13:XFD13)+Sheet1!D5-Sheet1!D6</f>
-        <v>44411.850143245443</v>
+        <f>NPV(Y20,M25:XFD25)+Sheet1!D5-Sheet1!D6</f>
+        <v>47522.222091993157</v>
       </c>
     </row>
     <row r="22" spans="1:119" x14ac:dyDescent="0.25">
@@ -2149,7 +2152,7 @@
       </c>
       <c r="Y22" s="2">
         <f>Y21/Sheet1!D3</f>
-        <v>245.77670250827586</v>
+        <v>262.98960759265719</v>
       </c>
     </row>
     <row r="23" spans="1:119" x14ac:dyDescent="0.25">
@@ -2161,7 +2164,7 @@
       </c>
       <c r="Y23" s="3">
         <f>Y22/Sheet1!D2-1</f>
-        <v>0.32852271626095053</v>
+        <v>0.36973753954508948</v>
       </c>
     </row>
     <row r="24" spans="1:119" x14ac:dyDescent="0.25">
@@ -2178,448 +2181,448 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" ref="I25:L25" si="86">I23-I24</f>
+        <f t="shared" ref="I25:L25" si="85">I23-I24</f>
         <v>0</v>
       </c>
       <c r="J25" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <f>M13*1.15</f>
+        <v>2446.8241662000005</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" ref="N25:V25" si="86">N13*1.15</f>
+        <v>2656.3765115638807</v>
+      </c>
+      <c r="O25" s="4">
         <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
+        <v>2878.6688244945894</v>
+      </c>
+      <c r="P25" s="4">
         <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
+        <v>3114.38919504669</v>
+      </c>
+      <c r="Q25" s="4">
         <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <f>M23-M24</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" ref="N25:Q25" si="87">N23-N24</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
+        <v>3364.2608552110923</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="86"/>
+        <v>3629.0439204368636</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="86"/>
+        <v>3909.5372159749982</v>
+      </c>
+      <c r="T25" s="4">
+        <f t="shared" si="86"/>
+        <v>4206.5801921329239</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="86"/>
+        <v>4521.0549327243552</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="86"/>
+        <v>4853.8882612043535</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" ref="R25:AW25" si="87">V25*(1+$Y$19)</f>
+        <v>4902.4271438163969</v>
+      </c>
+      <c r="X25" s="4">
         <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
+        <v>4951.4514152545607</v>
+      </c>
+      <c r="Y25" s="4">
         <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
+        <v>5000.9659294071062</v>
+      </c>
+      <c r="Z25" s="4">
         <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="4">
-        <f t="shared" ref="R25:AW25" si="88">Q25*(1+$Y$19)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <v>5050.975588701177</v>
       </c>
       <c r="AA25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5101.485344588189</v>
       </c>
       <c r="AB25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5152.5001980340712</v>
       </c>
       <c r="AC25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5204.0252000144119</v>
       </c>
       <c r="AD25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5256.0654520145563</v>
       </c>
       <c r="AE25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5308.6261065347016</v>
       </c>
       <c r="AF25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5361.7123676000483</v>
       </c>
       <c r="AG25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5415.3294912760484</v>
       </c>
       <c r="AH25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5469.4827861888089</v>
       </c>
       <c r="AI25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5524.1776140506972</v>
       </c>
       <c r="AJ25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5579.419390191204</v>
       </c>
       <c r="AK25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5635.213584093116</v>
       </c>
       <c r="AL25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5691.5657199340476</v>
       </c>
       <c r="AM25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5748.4813771333884</v>
       </c>
       <c r="AN25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5805.9661909047227</v>
       </c>
       <c r="AO25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5864.0258528137701</v>
       </c>
       <c r="AP25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5922.6661113419077</v>
       </c>
       <c r="AQ25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>5981.8927724553268</v>
       </c>
       <c r="AR25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>6041.7117001798806</v>
       </c>
       <c r="AS25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>6102.1288171816796</v>
       </c>
       <c r="AT25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>6163.1501053534967</v>
       </c>
       <c r="AU25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>6224.7816064070321</v>
       </c>
       <c r="AV25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>6287.0294224711024</v>
       </c>
       <c r="AW25" s="4">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="87"/>
+        <v>6349.8997166958134</v>
       </c>
       <c r="AX25" s="4">
-        <f t="shared" ref="AX25:CC25" si="89">AW25*(1+$Y$19)</f>
-        <v>0</v>
+        <f t="shared" ref="AX25:CC25" si="88">AW25*(1+$Y$19)</f>
+        <v>6413.3987138627717</v>
       </c>
       <c r="AY25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>6477.5327010013998</v>
       </c>
       <c r="AZ25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>6542.3080280114136</v>
       </c>
       <c r="BA25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>6607.7311082915276</v>
       </c>
       <c r="BB25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>6673.8084193744426</v>
       </c>
       <c r="BC25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>6740.5465035681873</v>
       </c>
       <c r="BD25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>6807.9519686038693</v>
       </c>
       <c r="BE25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>6876.0314882899083</v>
       </c>
       <c r="BF25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>6944.7918031728077</v>
       </c>
       <c r="BG25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7014.2397212045362</v>
       </c>
       <c r="BH25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7084.3821184165818</v>
       </c>
       <c r="BI25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7155.2259396007476</v>
       </c>
       <c r="BJ25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7226.7781989967552</v>
       </c>
       <c r="BK25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7299.0459809867225</v>
       </c>
       <c r="BL25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7372.0364407965899</v>
       </c>
       <c r="BM25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7445.7568052045563</v>
       </c>
       <c r="BN25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7520.2143732566019</v>
       </c>
       <c r="BO25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7595.4165169891676</v>
       </c>
       <c r="BP25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7671.3706821590595</v>
       </c>
       <c r="BQ25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7748.0843889806501</v>
       </c>
       <c r="BR25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7825.5652328704564</v>
       </c>
       <c r="BS25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7903.8208851991612</v>
       </c>
       <c r="BT25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>7982.8590940511531</v>
       </c>
       <c r="BU25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>8062.6876849916644</v>
       </c>
       <c r="BV25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>8143.3145618415811</v>
       </c>
       <c r="BW25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>8224.7477074599974</v>
       </c>
       <c r="BX25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>8306.9951845345968</v>
       </c>
       <c r="BY25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>8390.0651363799425</v>
       </c>
       <c r="BZ25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>8473.9657877437421</v>
       </c>
       <c r="CA25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>8558.705445621179</v>
       </c>
       <c r="CB25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>8644.2925000773903</v>
       </c>
       <c r="CC25" s="4">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>8730.7354250781646</v>
       </c>
       <c r="CD25" s="4">
-        <f t="shared" ref="CD25:DI25" si="90">CC25*(1+$Y$19)</f>
-        <v>0</v>
+        <f t="shared" ref="CD25:DI25" si="89">CC25*(1+$Y$19)</f>
+        <v>8818.0427793289455</v>
       </c>
       <c r="CE25" s="4">
+        <f t="shared" si="89"/>
+        <v>8906.2232071222352</v>
+      </c>
+      <c r="CF25" s="4">
+        <f t="shared" si="89"/>
+        <v>8995.2854391934579</v>
+      </c>
+      <c r="CG25" s="4">
+        <f t="shared" si="89"/>
+        <v>9085.238293585393</v>
+      </c>
+      <c r="CH25" s="4">
+        <f t="shared" si="89"/>
+        <v>9176.0906765212476</v>
+      </c>
+      <c r="CI25" s="4">
+        <f t="shared" si="89"/>
+        <v>9267.8515832864596</v>
+      </c>
+      <c r="CJ25" s="4">
+        <f t="shared" si="89"/>
+        <v>9360.5300991193235</v>
+      </c>
+      <c r="CK25" s="4">
+        <f t="shared" si="89"/>
+        <v>9454.1354001105174</v>
+      </c>
+      <c r="CL25" s="4">
+        <f t="shared" si="89"/>
+        <v>9548.6767541116224</v>
+      </c>
+      <c r="CM25" s="4">
+        <f t="shared" si="89"/>
+        <v>9644.1635216527393</v>
+      </c>
+      <c r="CN25" s="4">
+        <f t="shared" si="89"/>
+        <v>9740.6051568692674</v>
+      </c>
+      <c r="CO25" s="4">
+        <f t="shared" si="89"/>
+        <v>9838.0112084379598</v>
+      </c>
+      <c r="CP25" s="4">
+        <f t="shared" si="89"/>
+        <v>9936.3913205223398</v>
+      </c>
+      <c r="CQ25" s="4">
+        <f t="shared" si="89"/>
+        <v>10035.755233727563</v>
+      </c>
+      <c r="CR25" s="4">
+        <f t="shared" si="89"/>
+        <v>10136.112786064839</v>
+      </c>
+      <c r="CS25" s="4">
+        <f t="shared" si="89"/>
+        <v>10237.473913925487</v>
+      </c>
+      <c r="CT25" s="4">
+        <f t="shared" si="89"/>
+        <v>10339.848653064742</v>
+      </c>
+      <c r="CU25" s="4">
+        <f t="shared" si="89"/>
+        <v>10443.247139595391</v>
+      </c>
+      <c r="CV25" s="4">
+        <f t="shared" si="89"/>
+        <v>10547.679610991345</v>
+      </c>
+      <c r="CW25" s="4">
+        <f t="shared" si="89"/>
+        <v>10653.156407101258</v>
+      </c>
+      <c r="CX25" s="4">
+        <f t="shared" si="89"/>
+        <v>10759.68797117227</v>
+      </c>
+      <c r="CY25" s="4">
+        <f t="shared" si="89"/>
+        <v>10867.284850883992</v>
+      </c>
+      <c r="CZ25" s="4">
+        <f t="shared" si="89"/>
+        <v>10975.957699392833</v>
+      </c>
+      <c r="DA25" s="4">
+        <f t="shared" si="89"/>
+        <v>11085.717276386762</v>
+      </c>
+      <c r="DB25" s="4">
+        <f t="shared" si="89"/>
+        <v>11196.57444915063</v>
+      </c>
+      <c r="DC25" s="4">
+        <f t="shared" si="89"/>
+        <v>11308.540193642137</v>
+      </c>
+      <c r="DD25" s="4">
+        <f t="shared" si="89"/>
+        <v>11421.625595578558</v>
+      </c>
+      <c r="DE25" s="4">
+        <f t="shared" si="89"/>
+        <v>11535.841851534344</v>
+      </c>
+      <c r="DF25" s="4">
+        <f t="shared" si="89"/>
+        <v>11651.200270049687</v>
+      </c>
+      <c r="DG25" s="4">
+        <f t="shared" si="89"/>
+        <v>11767.712272750185</v>
+      </c>
+      <c r="DH25" s="4">
+        <f t="shared" si="89"/>
+        <v>11885.389395477687</v>
+      </c>
+      <c r="DI25" s="4">
+        <f t="shared" si="89"/>
+        <v>12004.243289432463</v>
+      </c>
+      <c r="DJ25" s="4">
+        <f t="shared" ref="DJ25:DO25" si="90">DI25*(1+$Y$19)</f>
+        <v>12124.285722326787</v>
+      </c>
+      <c r="DK25" s="4">
         <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CF25" s="4">
+        <v>12245.528579550055</v>
+      </c>
+      <c r="DL25" s="4">
         <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CG25" s="4">
+        <v>12367.983865345555</v>
+      </c>
+      <c r="DM25" s="4">
         <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CH25" s="4">
+        <v>12491.663703999011</v>
+      </c>
+      <c r="DN25" s="4">
         <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CI25" s="4">
+        <v>12616.580341039002</v>
+      </c>
+      <c r="DO25" s="4">
         <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CJ25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CK25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CL25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CM25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CN25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CO25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CP25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CQ25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CR25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CS25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CT25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CU25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CV25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CW25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CX25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CY25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="CZ25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="DA25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="DB25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="DC25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="DD25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="DE25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="DF25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="DG25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="DH25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="DI25" s="4">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="DJ25" s="4">
-        <f t="shared" ref="DJ25:DO25" si="91">DI25*(1+$Y$19)</f>
-        <v>0</v>
-      </c>
-      <c r="DK25" s="4">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="DL25" s="4">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="DM25" s="4">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="DN25" s="4">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="DO25" s="4">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <v>12742.746144449391</v>
       </c>
     </row>
     <row r="27" spans="1:119" x14ac:dyDescent="0.25">
@@ -2640,43 +2643,43 @@
       </c>
       <c r="M27" s="2">
         <f>L27+M13</f>
-        <v>-10040.435010000001</v>
+        <v>-10205.326811999999</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" ref="N27:V27" si="92">M27+N13</f>
-        <v>-7541.3105768160003</v>
+        <f t="shared" ref="N27:V27" si="91">M27+N13</f>
+        <v>-7895.4341932487987</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="92"/>
-        <v>-4822.3937025683854</v>
+        <f t="shared" si="91"/>
+        <v>-5392.2439110795904</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="92"/>
-        <v>-1869.697940670796</v>
+        <f t="shared" si="91"/>
+        <v>-2684.0793936476857</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="92"/>
-        <v>1331.5571774476944</v>
+        <f t="shared" si="91"/>
+        <v>241.36482827500367</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="92"/>
-        <v>4731.7820844900398</v>
+        <f t="shared" si="91"/>
+        <v>3397.0551938722765</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="92"/>
-        <v>8340.1985296019739</v>
+        <f t="shared" si="91"/>
+        <v>6796.6527729809713</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="92"/>
-        <v>12166.407698316707</v>
+        <f t="shared" si="91"/>
+        <v>10454.548592226993</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" si="92"/>
-        <v>16220.404843618204</v>
+        <f t="shared" si="91"/>
+        <v>14385.900707639476</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="92"/>
-        <v>20512.594458572268</v>
+        <f t="shared" si="91"/>
+        <v>18606.67310868674</v>
       </c>
     </row>
     <row r="29" spans="1:119" x14ac:dyDescent="0.25">
